--- a/LaTex/data/nnet_k.xlsx
+++ b/LaTex/data/nnet_k.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>affirmative</t>
   </si>
@@ -419,296 +419,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X33"/>
+  <dimension ref="A2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2613</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2">
+        <v>14</v>
+      </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>151</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>2613</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>145</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>167</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>148</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>170</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2">
-        <v>14</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>117</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>151</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>145</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>100</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>167</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
@@ -717,284 +783,126 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>163</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <f>C2</f>
+        <v>2613</v>
+      </c>
+      <c r="D12" s="2">
+        <f>D3</f>
+        <v>117</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E4</f>
+        <v>151</v>
+      </c>
+      <c r="F12" s="2">
+        <f>F5</f>
+        <v>145</v>
+      </c>
+      <c r="G12" s="2">
+        <f>G6</f>
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H7</f>
+        <v>167</v>
+      </c>
+      <c r="I12" s="2">
+        <f>I8</f>
         <v>148</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
       <c r="J12" s="2">
+        <f>J9</f>
         <v>95</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <f>K10</f>
+        <v>170</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <f>L11</f>
+        <v>163</v>
       </c>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>6</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <f>SUM(C2:C11) - C12</f>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <f t="shared" ref="D13:L13" si="0">SUM(D2:D11) - D12</f>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K13" s="2">
-        <v>170</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>163</v>
-      </c>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M14" s="2"/>
-      <c r="O14">
-        <v>2613</v>
-      </c>
-      <c r="P14">
-        <v>117</v>
-      </c>
-      <c r="Q14">
-        <v>151</v>
-      </c>
-      <c r="R14">
-        <v>145</v>
-      </c>
-      <c r="S14">
-        <v>100</v>
-      </c>
-      <c r="T14">
-        <v>167</v>
-      </c>
-      <c r="U14">
-        <v>148</v>
-      </c>
-      <c r="V14">
-        <v>95</v>
-      </c>
-      <c r="W14">
-        <v>170</v>
-      </c>
-      <c r="X14">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <f>C5</f>
-        <v>2613</v>
-      </c>
-      <c r="D15" s="2">
-        <f>D6</f>
-        <v>117</v>
-      </c>
-      <c r="E15" s="2">
-        <f>E7</f>
-        <v>151</v>
-      </c>
-      <c r="F15" s="2">
-        <f>F8</f>
-        <v>145</v>
-      </c>
-      <c r="G15" s="2">
-        <f>G9</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="2">
-        <f>H10</f>
-        <v>167</v>
-      </c>
-      <c r="I15" s="2">
-        <f>I11</f>
-        <v>148</v>
-      </c>
-      <c r="J15" s="2">
-        <f>J12</f>
-        <v>95</v>
-      </c>
-      <c r="K15" s="2">
-        <f>K13</f>
-        <v>170</v>
-      </c>
-      <c r="L15" s="2">
-        <f>L14</f>
-        <v>163</v>
-      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M15" s="2"/>
-      <c r="O15">
-        <v>10</v>
-      </c>
-      <c r="P15">
-        <v>15</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-      <c r="R15">
-        <v>12</v>
-      </c>
-      <c r="S15">
-        <v>8</v>
-      </c>
-      <c r="T15">
-        <v>8</v>
-      </c>
-      <c r="U15">
-        <v>13</v>
-      </c>
-      <c r="V15">
-        <v>7</v>
-      </c>
-      <c r="W15">
-        <v>17</v>
-      </c>
-      <c r="X15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2">
-        <f>SUM(C5:C14) - C15</f>
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:L16" si="0">SUM(D5:D14) - D15</f>
-        <v>15</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1049,18 +957,6 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>2613</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
@@ -1074,171 +970,47 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>117</v>
-      </c>
-      <c r="P21">
-        <v>15</v>
-      </c>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>151</v>
-      </c>
-      <c r="P22">
-        <v>13</v>
-      </c>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23">
-        <v>145</v>
-      </c>
-      <c r="P23">
-        <v>12</v>
-      </c>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>100</v>
-      </c>
-      <c r="P24">
-        <v>8</v>
-      </c>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L25">
-        <v>6</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>167</v>
-      </c>
-      <c r="P25">
-        <v>8</v>
-      </c>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <v>148</v>
-      </c>
-      <c r="P26">
-        <v>13</v>
-      </c>
+      <c r="N26" s="3"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L27">
-        <v>8</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <v>95</v>
-      </c>
-      <c r="P27">
-        <v>7</v>
-      </c>
+      <c r="N27" s="3"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <v>170</v>
-      </c>
-      <c r="P28">
-        <v>17</v>
-      </c>
+      <c r="N28" s="3"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L29">
-        <v>10</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O29">
-        <v>163</v>
-      </c>
-      <c r="P29">
-        <v>18</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1250,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
